--- a/dataBase/goblinAncestry.xlsx
+++ b/dataBase/goblinAncestry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82155BB-A077-4EB4-B0B4-40E69041954B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD973D4-4ABE-43FB-AFBB-C95ED9ED7F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15450" yWindow="0" windowWidth="23055" windowHeight="20985" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57495" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="goblinAncestry" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="126">
   <si>
     <t>0.5</t>
   </si>
@@ -528,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -543,9 +543,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1004,7 +1001,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,10 +1012,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>70</v>
@@ -1028,7 +1025,7 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1036,7 +1033,7 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C3" t="s">
@@ -1047,7 +1044,7 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1071,7 +1068,7 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
@@ -1082,47 +1079,47 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C13" t="s">
@@ -1130,10 +1127,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
@@ -1141,10 +1138,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C15" t="s">
@@ -1152,10 +1149,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C16" t="s">
@@ -1163,26 +1160,26 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C19" t="s">
@@ -1190,18 +1187,18 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C21" t="s">
@@ -1219,7 +1216,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,18 +1226,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1248,7 +1245,7 @@
       <c r="A3" s="6">
         <v>4</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1256,7 +1253,7 @@
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1264,7 +1261,7 @@
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1272,7 +1269,7 @@
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1280,7 +1277,7 @@
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1288,7 +1285,7 @@
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1296,7 +1293,7 @@
       <c r="A9" s="5">
         <v>17</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1304,36 +1301,36 @@
       <c r="A10" s="5">
         <v>18</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
     </row>
     <row r="26" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
+      <c r="B26" s="13"/>
     </row>
     <row r="27" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
+      <c r="B27" s="15"/>
     </row>
     <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16"/>
+      <c r="B28" s="15"/>
     </row>
     <row r="29" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="16"/>
+      <c r="B29" s="15"/>
     </row>
     <row r="30" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14"/>
+      <c r="B30" s="13"/>
     </row>
     <row r="31" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="14"/>
+      <c r="B31" s="13"/>
     </row>
     <row r="32" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="14"/>
+      <c r="B32" s="13"/>
     </row>
     <row r="33" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="14"/>
+      <c r="B33" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1346,180 +1343,180 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1555,7 +1552,7 @@
       <c r="A2" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1571,7 +1568,7 @@
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1579,7 +1576,7 @@
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1587,7 +1584,7 @@
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1609,7 +1606,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,175 +1702,183 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5E2F9-0AA5-4A58-B473-4820B5637D5F}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+    <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+    <row r="7" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+    <row r="12" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+    <row r="18" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>106</v>
       </c>
     </row>

--- a/dataBase/goblinAncestry.xlsx
+++ b/dataBase/goblinAncestry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJEKTY\CODING\pythonProject\dataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD973D4-4ABE-43FB-AFBB-C95ED9ED7F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B293E880-C91F-4938-B51C-C1EDEC8BC19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57495" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38295" yWindow="0" windowWidth="21735" windowHeight="20985" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="goblinAncestry" sheetId="1" r:id="rId1"/>
@@ -1000,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1C835C-BECA-4F8C-A233-A9EE9639DEEB}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A5E2F9-0AA5-4A58-B473-4820B5637D5F}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
